--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Código Fonasa</t>
   </si>
@@ -36,6 +36,240 @@
   </si>
   <si>
     <t>Total Exámenes</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de órbitas</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>RESONANCIA EXTREMIDADES INFERIORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Ecografía mamaria bilateral (incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo </t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen </t>
   </si>
 </sst>
 </file>
@@ -375,7 +609,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,6 +638,1623 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>403001</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>405005</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>403002</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>109</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>405007</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>403013</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="F6">
+        <v>319</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>405003</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>403001</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>308</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>405015</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>403007</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+      <c r="F10">
+        <v>2215</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>403021</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>403007</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>403020</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>403016</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>405024</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>215</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>403013</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>405010</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2024</v>
+      </c>
+      <c r="F17">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>405027</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2024</v>
+      </c>
+      <c r="F18">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>404003</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2024</v>
+      </c>
+      <c r="F19">
+        <v>76</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>404118</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
+      </c>
+      <c r="F20">
+        <v>870</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>403001</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2024</v>
+      </c>
+      <c r="F21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>404118</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2020</v>
+      </c>
+      <c r="F22">
+        <v>1269</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>405011</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>405016</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2024</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>404118</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
+      </c>
+      <c r="F25">
+        <v>880</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>403002</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>2024</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>403008</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>2024</v>
+      </c>
+      <c r="F27">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>403019</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>404012</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2024</v>
+      </c>
+      <c r="F29">
+        <v>125</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>404016</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2024</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>405010</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31">
+        <v>183</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>405016</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32">
+        <v>338</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>405013</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>2024</v>
+      </c>
+      <c r="F33">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>405001</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>2024</v>
+      </c>
+      <c r="F34">
+        <v>43</v>
+      </c>
+      <c r="G34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>403008</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>405005</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
+      </c>
+      <c r="F36">
+        <v>47</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>405006</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>2024</v>
+      </c>
+      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>405002</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>162</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>403017</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>2024</v>
+      </c>
+      <c r="F39">
+        <v>111</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>404118</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40">
+        <v>54</v>
+      </c>
+      <c r="G40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>403103</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41">
+        <v>172</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>403014</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>403101</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>111</v>
+      </c>
+      <c r="G43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>403012</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>2024</v>
+      </c>
+      <c r="F44">
+        <v>48</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>403006</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>158</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>403006</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>2024</v>
+      </c>
+      <c r="F46">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>405006</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>405098</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>2024</v>
+      </c>
+      <c r="F48">
+        <v>119</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>405029</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>299</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>405011</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>2024</v>
+      </c>
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>403007</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>2024</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>403021</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>2024</v>
+      </c>
+      <c r="F52">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>403014</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>2024</v>
+      </c>
+      <c r="F53">
+        <v>78</v>
+      </c>
+      <c r="G53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>404118</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>2024</v>
+      </c>
+      <c r="F54">
+        <v>124</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>405002</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>2024</v>
+      </c>
+      <c r="F55">
+        <v>82</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>405013</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>74</v>
+      </c>
+      <c r="G56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>405028</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>2024</v>
+      </c>
+      <c r="F57">
+        <v>51</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>403101</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>2024</v>
+      </c>
+      <c r="F58">
+        <v>47</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>405009</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59">
+        <v>196</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>405001</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>405026</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>2024</v>
+      </c>
+      <c r="F61">
+        <v>138</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>403107</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>2023</v>
+      </c>
+      <c r="F62">
+        <v>426</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>404016</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>404118</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64">
+        <v>2019</v>
+      </c>
+      <c r="F64">
+        <v>1460</v>
+      </c>
+      <c r="G64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>405027</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>2023</v>
+      </c>
+      <c r="F65">
+        <v>51</v>
+      </c>
+      <c r="G65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>403016</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>2024</v>
+      </c>
+      <c r="F66">
+        <v>44</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>403017</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>2023</v>
+      </c>
+      <c r="F67">
+        <v>182</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>403018</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>2024</v>
+      </c>
+      <c r="F68">
+        <v>121</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>403013</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>2024</v>
+      </c>
+      <c r="F69">
+        <v>47</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>403019</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>2024</v>
+      </c>
+      <c r="F70">
+        <v>103</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>405017</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71">
+        <v>89</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>405098</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
+      </c>
+      <c r="F72">
+        <v>64</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>405007</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>2024</v>
+      </c>
+      <c r="F73">
+        <v>47</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>403102</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>2024</v>
+      </c>
+      <c r="F74">
+        <v>83</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>405012</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>2023</v>
+      </c>
+      <c r="F75">
+        <v>182</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>405012</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>2024</v>
+      </c>
+      <c r="F76">
+        <v>71</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>403012</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>2023</v>
+      </c>
+      <c r="F77">
+        <v>197</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>405020</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>2023</v>
+      </c>
+      <c r="F78">
+        <v>257</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Código Fonasa</t>
   </si>
@@ -38,238 +38,376 @@
     <t>Total Exámenes</t>
   </si>
   <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Comp</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t>RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Tórax ,Resonancia Magnética Angiografía de Tórax ,Resonancia Magnética Angiografía de Tórax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía,Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
+  </si>
+  <si>
+    <t>Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,T</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
+    <t>Colangioresonancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Estern</t>
+  </si>
+  <si>
+    <t>Ecografía tiroidea (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Ecografía encefálica (RN o lactante),Ecografía encefálica (RN o lactante)</t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Ma</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
     <t>Tomografía Computarizada de cráneo encefálica</t>
   </si>
   <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
-  </si>
-  <si>
-    <t>Resonancia magnetica</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de hipotálamo</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de órbitas</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>RESONANCIA EXTREMIDADES INFERIORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
-  </si>
-  <si>
-    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
-  </si>
-  <si>
-    <t>Ecografía</t>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de articulaciones temporomandibulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Angiografía de Cuello</t>
+  </si>
+  <si>
+    <t>Ecografía doppler de vasos del cuello</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Co</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de fosa posterior</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral</t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Angio Cardíaco Mínimo 64 cortes</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna,Resonancia Magnética de Pierna,Resonancia Magnética de Pierna,Resonancia Magnética de Pierna,Resonancia Magnética de Pierna,Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
   </si>
   <si>
     <t>Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
-  </si>
-  <si>
-    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
-  </si>
-  <si>
-    <t>Ecografía mamaria bilateral (incluye Doppler)</t>
-  </si>
-  <si>
-    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
-  </si>
-  <si>
-    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de columna cervical </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de abdomen</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de temporal</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
-  </si>
-  <si>
-    <t>Colangioresonancia,Colangioresonancia</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pierna</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de hipotálamo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo </t>
-  </si>
-  <si>
-    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
-  </si>
-  <si>
-    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
-  </si>
-  <si>
-    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen </t>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bi</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética  Angiografía de Extremidad Superior Unilateral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
   </si>
 </sst>
 </file>
@@ -609,7 +747,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,78 +793,78 @@
         <v>2022</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>405005</v>
+        <v>403101</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>330</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>403002</v>
+        <v>403022</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2023</v>
-      </c>
-      <c r="F4">
-        <v>109</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>405007</v>
+        <v>405005</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>403013</v>
+        <v>403002</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
@@ -736,39 +874,39 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F6">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>405003</v>
+        <v>405007</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>403001</v>
+        <v>403102</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
@@ -781,57 +919,57 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>405015</v>
+        <v>405016</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>403007</v>
+        <v>405030</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="F10">
-        <v>2215</v>
+        <v>113</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>403021</v>
+        <v>403013</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
@@ -841,102 +979,102 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="G11">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>403007</v>
+        <v>405001</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F12">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>403020</v>
+        <v>405007</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>533</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>403016</v>
+        <v>405003</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>2023</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>405024</v>
+        <v>403001</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>2023</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>403013</v>
+        <v>403014</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
@@ -946,60 +1084,60 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="G16">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>405010</v>
+        <v>405015</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>405027</v>
+        <v>403020</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F18">
-        <v>62</v>
+        <v>1226</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>404003</v>
+        <v>404118</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
@@ -1009,157 +1147,157 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="F19">
-        <v>76</v>
+        <v>1983</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>404118</v>
+        <v>403007</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F20">
-        <v>870</v>
+        <v>2215</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>403001</v>
+        <v>405019</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F21">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="G21">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>404118</v>
+        <v>403007</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>2020</v>
       </c>
       <c r="F22">
-        <v>1269</v>
+        <v>1351</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>405011</v>
+        <v>404003</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>2023</v>
       </c>
       <c r="F23">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>405016</v>
+        <v>403021</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F24">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>404118</v>
+        <v>403007</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F25">
-        <v>880</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>403002</v>
+        <v>403021</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F26">
-        <v>44</v>
+        <v>578</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1167,62 +1305,62 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>403008</v>
+        <v>403020</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F27">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>403019</v>
+        <v>403001</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>1086</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>404012</v>
+        <v>403107</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>2024</v>
       </c>
       <c r="F29">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1230,448 +1368,448 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>404016</v>
+        <v>403022</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>2024</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>405010</v>
+        <v>404014</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F31">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>405016</v>
+        <v>403016</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>2023</v>
       </c>
       <c r="F32">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>405013</v>
+        <v>405029</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>2024</v>
       </c>
       <c r="F33">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>405001</v>
+        <v>405098</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F34">
-        <v>43</v>
+        <v>853</v>
       </c>
       <c r="G34">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>403008</v>
+        <v>405024</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>2023</v>
       </c>
       <c r="F35">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>405005</v>
+        <v>403013</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F36">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>405006</v>
+        <v>404015</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>2024</v>
       </c>
       <c r="F37">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>405002</v>
+        <v>405010</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F38">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>403017</v>
+        <v>405027</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>2024</v>
       </c>
       <c r="F39">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>404118</v>
+        <v>404011</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F40">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G40">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>403103</v>
+        <v>404003</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F41">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>403014</v>
+        <v>404118</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>869</v>
       </c>
       <c r="G42">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>403101</v>
+        <v>403001</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F43">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="G43">
-        <v>27</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>403012</v>
+        <v>403021</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="F44">
-        <v>48</v>
+        <v>2021</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>403006</v>
+        <v>404118</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F45">
-        <v>158</v>
+        <v>1119</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>403006</v>
+        <v>405011</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F46">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>405006</v>
+        <v>405016</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F47">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>405098</v>
+        <v>403018</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F48">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>405029</v>
+        <v>404118</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="s">
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F49">
-        <v>299</v>
+        <v>881</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>405011</v>
+        <v>403002</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="s">
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>2024</v>
       </c>
       <c r="F50">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>403007</v>
+        <v>403008</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="s">
@@ -1684,36 +1822,36 @@
         <v>2024</v>
       </c>
       <c r="F51">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G51">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>403021</v>
+        <v>404012</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>2024</v>
       </c>
       <c r="F52">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>403014</v>
+        <v>403019</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
@@ -1723,102 +1861,102 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F53">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G53">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>404118</v>
+        <v>405021</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F54">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>405002</v>
+        <v>404016</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="s">
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>2024</v>
       </c>
       <c r="F55">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>405013</v>
+        <v>405010</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>2023</v>
       </c>
       <c r="F56">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>405028</v>
+        <v>405016</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F57">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>403101</v>
+        <v>403001</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
@@ -1828,34 +1966,34 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="F58">
-        <v>47</v>
+        <v>995</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>405009</v>
+        <v>405013</v>
       </c>
       <c r="B59"/>
       <c r="C59" t="s">
         <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F59">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1867,168 +2005,168 @@
         <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="G60">
-        <v>116</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>405026</v>
+        <v>403008</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F61">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>403107</v>
+        <v>405006</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
         <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F62">
-        <v>426</v>
+        <v>48</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>404016</v>
+        <v>405005</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
         <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>404118</v>
+        <v>403017</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
         <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="F64">
-        <v>1460</v>
+        <v>52</v>
       </c>
       <c r="G64">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>405027</v>
+        <v>404118</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>2023</v>
       </c>
       <c r="F65">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G65">
-        <v>33</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>403016</v>
+        <v>405004</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="s">
         <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F66">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>403017</v>
+        <v>405002</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
         <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>2023</v>
       </c>
       <c r="F67">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>403018</v>
+        <v>403006</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
@@ -2038,18 +2176,18 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F68">
-        <v>121</v>
+        <v>1638</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>403013</v>
+        <v>403103</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
@@ -2059,31 +2197,31 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F69">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>403019</v>
+        <v>405018</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="s">
         <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F70">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2091,70 +2229,70 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>405017</v>
+        <v>404119</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="s">
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>2023</v>
       </c>
       <c r="F71">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>405098</v>
+        <v>403014</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="s">
         <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>2023</v>
       </c>
       <c r="F72">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>12</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>405007</v>
+        <v>403101</v>
       </c>
       <c r="B73"/>
       <c r="C73" t="s">
         <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F73">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>403102</v>
+        <v>403012</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
@@ -2167,94 +2305,1081 @@
         <v>2024</v>
       </c>
       <c r="F74">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>405012</v>
+        <v>403003</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
         <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F75">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>405012</v>
+        <v>403006</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F76">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>403012</v>
+        <v>403006</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F77">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>405020</v>
+        <v>405030</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F78">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="G78">
         <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>405098</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>2024</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>405006</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>2023</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>403012</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>2022</v>
+      </c>
+      <c r="F81">
+        <v>548</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>403106</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>2024</v>
+      </c>
+      <c r="F82">
+        <v>135</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>405029</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83">
+        <v>300</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>405011</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>2024</v>
+      </c>
+      <c r="F84">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>403014</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>2024</v>
+      </c>
+      <c r="F85">
+        <v>77</v>
+      </c>
+      <c r="G85">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>403007</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>2024</v>
+      </c>
+      <c r="F86">
+        <v>49</v>
+      </c>
+      <c r="G86">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>404010</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>2024</v>
+      </c>
+      <c r="F87">
+        <v>66</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>404118</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88">
+        <v>2024</v>
+      </c>
+      <c r="F88">
+        <v>125</v>
+      </c>
+      <c r="G88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>405002</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>2024</v>
+      </c>
+      <c r="F89">
+        <v>64</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>405013</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>2023</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>403021</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <v>2024</v>
+      </c>
+      <c r="F91">
+        <v>45</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>405028</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>2024</v>
+      </c>
+      <c r="F92">
+        <v>52</v>
+      </c>
+      <c r="G92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>404118</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93">
+        <v>2017</v>
+      </c>
+      <c r="F93">
+        <v>2432</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>405001</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>2023</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>405012</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>2022</v>
+      </c>
+      <c r="F95">
+        <v>514</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>403101</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>2024</v>
+      </c>
+      <c r="F96">
+        <v>219</v>
+      </c>
+      <c r="G96">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>405021</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>2024</v>
+      </c>
+      <c r="F97">
+        <v>112</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>405022</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>2023</v>
+      </c>
+      <c r="F98">
+        <v>173</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>405026</v>
+      </c>
+      <c r="B99"/>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>2024</v>
+      </c>
+      <c r="F99">
+        <v>139</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>405009</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100">
+        <v>149</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>403108</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>2023</v>
+      </c>
+      <c r="F101">
+        <v>444</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>404118</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>2019</v>
+      </c>
+      <c r="F102">
+        <v>1451</v>
+      </c>
+      <c r="G102">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>403107</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>2023</v>
+      </c>
+      <c r="F103">
+        <v>29</v>
+      </c>
+      <c r="G103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>404016</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104">
+        <v>2023</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>405027</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>2023</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>403016</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>2024</v>
+      </c>
+      <c r="F106">
+        <v>77</v>
+      </c>
+      <c r="G106">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>403017</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>2023</v>
+      </c>
+      <c r="F107">
+        <v>16</v>
+      </c>
+      <c r="G107">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>403018</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>2024</v>
+      </c>
+      <c r="F108">
+        <v>84</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>405028</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>2023</v>
+      </c>
+      <c r="F109">
+        <v>122</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>403013</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>2024</v>
+      </c>
+      <c r="F110">
+        <v>77</v>
+      </c>
+      <c r="G110">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>403019</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>2024</v>
+      </c>
+      <c r="F111">
+        <v>50</v>
+      </c>
+      <c r="G111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>403103</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>2024</v>
+      </c>
+      <c r="F112">
+        <v>57</v>
+      </c>
+      <c r="G112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>405017</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113">
+        <v>2024</v>
+      </c>
+      <c r="F113">
+        <v>197</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>405017</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>2023</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>405098</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>2023</v>
+      </c>
+      <c r="F115">
+        <v>40</v>
+      </c>
+      <c r="G115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>405007</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>2024</v>
+      </c>
+      <c r="F116">
+        <v>44</v>
+      </c>
+      <c r="G116">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>403020</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>2022</v>
+      </c>
+      <c r="F117">
+        <v>692</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>403102</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>2024</v>
+      </c>
+      <c r="F118">
+        <v>56</v>
+      </c>
+      <c r="G118">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>405012</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>2023</v>
+      </c>
+      <c r="F119">
+        <v>107</v>
+      </c>
+      <c r="G119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>405012</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>2024</v>
+      </c>
+      <c r="F120">
+        <v>71</v>
+      </c>
+      <c r="G120">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>403020</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>2024</v>
+      </c>
+      <c r="F121">
+        <v>71</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>403012</v>
+      </c>
+      <c r="B122"/>
+      <c r="C122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>2023</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>405010</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>2022</v>
+      </c>
+      <c r="F123">
+        <v>521</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>405020</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>2023</v>
+      </c>
+      <c r="F124">
+        <v>153</v>
+      </c>
+      <c r="G124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>405024</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>2024</v>
+      </c>
+      <c r="F125">
+        <v>44</v>
+      </c>
+      <c r="G125">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Código Fonasa</t>
   </si>
@@ -44,10 +44,31 @@
     <t>Scanner</t>
   </si>
   <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax</t>
+  </si>
+  <si>
     <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
   </si>
   <si>
-    <t>Resonancia magnetica</t>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral</t>
   </si>
   <si>
     <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
@@ -59,34 +80,331 @@
     <t>Resonancia Magnética de columna lumbar</t>
   </si>
   <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
     <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
   </si>
   <si>
+    <t>RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Tórax ,Resonancia Magnética Angiografía de Tórax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Co</t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
     <t>Tomografía Computarizada Pielografía</t>
   </si>
   <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
     <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
   </si>
   <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
+  </si>
+  <si>
+    <t>Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
     <t>Colangioresonancia</t>
   </si>
   <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulaci</t>
+  </si>
+  <si>
+    <t>Ecografía tiroidea (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Ecografía encefálica (RN o lactante),Ecografía encefálica (RN o lactante)</t>
+  </si>
+  <si>
     <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
   </si>
   <si>
-    <t>Ecografía</t>
+    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de articulaciones temporomandibulares</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Angiografía de Cuello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Ecografía doppler de vasos del cuello</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de fosa posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
   </si>
   <si>
     <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas </t>
   </si>
   <si>
+    <t>Tomografía Computarizada de Angio Cardíaco Mínimo 64 cortes</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna,Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t>Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
     <t>Resonancia Magnética de abdomen y pelvis</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de Abdomen y Pelvis</t>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética  Angiografía de Extremidad Superior Unilateral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
   </si>
   <si>
     <t xml:space="preserve">Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
   </si>
 </sst>
 </file>
@@ -426,7 +744,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,91 +798,91 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>405016</v>
+        <v>403107</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F3">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>403013</v>
+        <v>403022</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-      <c r="F4">
-        <v>319</v>
-      </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>405001</v>
+        <v>403002</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F5">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>405007</v>
+        <v>405006</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F6">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>403014</v>
+        <v>403102</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
@@ -574,34 +892,34 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>403021</v>
+        <v>405016</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>2022</v>
       </c>
       <c r="F8">
-        <v>578</v>
+        <v>249</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -616,73 +934,73 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F9">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>405098</v>
+        <v>405030</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F10">
-        <v>853</v>
+        <v>113</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>404118</v>
+        <v>403013</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>2022</v>
       </c>
       <c r="F11">
-        <v>869</v>
+        <v>319</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>403012</v>
+        <v>405001</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>2022</v>
       </c>
       <c r="F12">
-        <v>548</v>
+        <v>246</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -690,20 +1008,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>405012</v>
+        <v>405007</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>2022</v>
       </c>
       <c r="F13">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -711,44 +1029,2354 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>403020</v>
+        <v>405027</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F14">
-        <v>692</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>405010</v>
+        <v>403014</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>2022</v>
       </c>
       <c r="F15">
+        <v>300</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>405015</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>403020</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2020</v>
+      </c>
+      <c r="F17">
+        <v>1226</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>404118</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+      <c r="F18">
+        <v>1983</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>403007</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2017</v>
+      </c>
+      <c r="F19">
+        <v>2215</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>405019</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>403007</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+      <c r="F21">
+        <v>1351</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>403014</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>404003</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>404003</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>2024</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>403006</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>68</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>403021</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>2022</v>
+      </c>
+      <c r="F26">
+        <v>578</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>405098</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>2024</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>403021</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>403001</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>2020</v>
+      </c>
+      <c r="F29">
+        <v>1086</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>403001</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>2022</v>
+      </c>
+      <c r="F30">
+        <v>276</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>403107</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2024</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>403022</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>2024</v>
+      </c>
+      <c r="F32">
+        <v>294</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>404014</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>2024</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>405001</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>403016</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>405029</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
+      </c>
+      <c r="F36">
+        <v>48</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>405098</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>2022</v>
+      </c>
+      <c r="F37">
+        <v>853</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>405024</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>403013</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>404015</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>2024</v>
+      </c>
+      <c r="F40">
+        <v>125</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>404011</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>2024</v>
+      </c>
+      <c r="F41">
+        <v>65</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>404118</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>2022</v>
+      </c>
+      <c r="F42">
+        <v>869</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>405009</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>149</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>403007</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>403021</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2018</v>
+      </c>
+      <c r="F45">
+        <v>2021</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>405011</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>403001</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2024</v>
+      </c>
+      <c r="F47">
+        <v>219</v>
+      </c>
+      <c r="G47">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>403018</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>82</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>403019</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>2024</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>403002</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>2024</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>403008</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>2024</v>
+      </c>
+      <c r="F51">
+        <v>72</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>403019</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>404012</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>2024</v>
+      </c>
+      <c r="F53">
+        <v>126</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>403103</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>405021</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>196</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>405016</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>155</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>405098</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57">
+        <v>40</v>
+      </c>
+      <c r="G57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>403001</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>2021</v>
+      </c>
+      <c r="F58">
+        <v>995</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>403101</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>2024</v>
+      </c>
+      <c r="F59">
+        <v>219</v>
+      </c>
+      <c r="G59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>405003</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60">
+        <v>105</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>405020</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="F61">
+        <v>153</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>405016</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>2024</v>
+      </c>
+      <c r="F62">
+        <v>58</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>403008</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
+      </c>
+      <c r="F63">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>404016</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>2023</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>405004</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>2023</v>
+      </c>
+      <c r="F65">
+        <v>182</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>405013</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>2023</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>403006</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>2019</v>
+      </c>
+      <c r="F67">
+        <v>1638</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>405012</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>2024</v>
+      </c>
+      <c r="F68">
+        <v>71</v>
+      </c>
+      <c r="G68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>405018</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>2023</v>
+      </c>
+      <c r="F69">
+        <v>257</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>405017</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>404119</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71">
+        <v>224</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>403021</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>2024</v>
+      </c>
+      <c r="F72">
+        <v>45</v>
+      </c>
+      <c r="G72">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>404118</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73">
+        <v>2019</v>
+      </c>
+      <c r="F73">
+        <v>1451</v>
+      </c>
+      <c r="G73">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>404118</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>2023</v>
+      </c>
+      <c r="F74">
+        <v>52</v>
+      </c>
+      <c r="G74">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>403102</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>2024</v>
+      </c>
+      <c r="F75">
+        <v>56</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>404118</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76">
+        <v>2021</v>
+      </c>
+      <c r="F76">
+        <v>881</v>
+      </c>
+      <c r="G76">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>403012</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>2024</v>
+      </c>
+      <c r="F77">
+        <v>23</v>
+      </c>
+      <c r="G77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>403003</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>2024</v>
+      </c>
+      <c r="F78">
+        <v>72</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>403007</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>2024</v>
+      </c>
+      <c r="F79">
+        <v>49</v>
+      </c>
+      <c r="G79">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>405010</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>2024</v>
+      </c>
+      <c r="F80">
+        <v>44</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>405002</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>2023</v>
+      </c>
+      <c r="F81">
+        <v>111</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>405030</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>2024</v>
+      </c>
+      <c r="F82">
+        <v>140</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>405007</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>403012</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>2022</v>
+      </c>
+      <c r="F84">
+        <v>548</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>403106</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>2024</v>
+      </c>
+      <c r="F85">
+        <v>135</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>405011</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>2024</v>
+      </c>
+      <c r="F86">
+        <v>45</v>
+      </c>
+      <c r="G86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>405029</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>2023</v>
+      </c>
+      <c r="F87">
+        <v>300</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>403017</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>2024</v>
+      </c>
+      <c r="F88">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>404010</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89">
+        <v>2024</v>
+      </c>
+      <c r="F89">
+        <v>66</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>404118</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90">
+        <v>2024</v>
+      </c>
+      <c r="F90">
+        <v>125</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>405002</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>2024</v>
+      </c>
+      <c r="F91">
+        <v>64</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>405006</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92">
+        <v>2024</v>
+      </c>
+      <c r="F92">
+        <v>48</v>
+      </c>
+      <c r="G92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>405028</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>2024</v>
+      </c>
+      <c r="F93">
+        <v>52</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>405005</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94">
+        <v>2024</v>
+      </c>
+      <c r="F94">
+        <v>45</v>
+      </c>
+      <c r="G94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>405027</v>
+      </c>
+      <c r="B95"/>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95">
+        <v>2024</v>
+      </c>
+      <c r="F95">
+        <v>49</v>
+      </c>
+      <c r="G95">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>404118</v>
+      </c>
+      <c r="B96"/>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96">
+        <v>2017</v>
+      </c>
+      <c r="F96">
+        <v>2432</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>404016</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97">
+        <v>2024</v>
+      </c>
+      <c r="F97">
+        <v>348</v>
+      </c>
+      <c r="G97">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>405012</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98">
+        <v>2022</v>
+      </c>
+      <c r="F98">
+        <v>514</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>405021</v>
+      </c>
+      <c r="B99"/>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>2024</v>
+      </c>
+      <c r="F99">
+        <v>112</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>405022</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100">
+        <v>173</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>405026</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101">
+        <v>2024</v>
+      </c>
+      <c r="F101">
+        <v>139</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>405007</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>2024</v>
+      </c>
+      <c r="F102">
+        <v>44</v>
+      </c>
+      <c r="G102">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>403006</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>2024</v>
+      </c>
+      <c r="F103">
+        <v>49</v>
+      </c>
+      <c r="G103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>403108</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>2023</v>
+      </c>
+      <c r="F104">
+        <v>444</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>403016</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>2024</v>
+      </c>
+      <c r="F105">
+        <v>77</v>
+      </c>
+      <c r="G105">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>403014</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>2024</v>
+      </c>
+      <c r="F106">
+        <v>77</v>
+      </c>
+      <c r="G106">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>403018</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>2024</v>
+      </c>
+      <c r="F107">
+        <v>84</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>405028</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>2023</v>
+      </c>
+      <c r="F108">
+        <v>122</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>403013</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>2024</v>
+      </c>
+      <c r="F109">
+        <v>77</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>403020</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>2023</v>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>405001</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>2024</v>
+      </c>
+      <c r="F111">
+        <v>197</v>
+      </c>
+      <c r="G111">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>403103</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>2024</v>
+      </c>
+      <c r="F112">
+        <v>57</v>
+      </c>
+      <c r="G112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>405017</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>2024</v>
+      </c>
+      <c r="F113">
+        <v>197</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>405005</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>2023</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>403017</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>2023</v>
+      </c>
+      <c r="F115">
+        <v>16</v>
+      </c>
+      <c r="G115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>403020</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>2022</v>
+      </c>
+      <c r="F116">
+        <v>692</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>405010</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <v>2023</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>404118</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118">
+        <v>2020</v>
+      </c>
+      <c r="F118">
+        <v>1119</v>
+      </c>
+      <c r="G118">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>403012</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>2023</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>403020</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <v>2024</v>
+      </c>
+      <c r="F120">
+        <v>71</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>405010</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>2022</v>
+      </c>
+      <c r="F121">
         <v>521</v>
       </c>
-      <c r="G15">
+      <c r="G121">
         <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>405013</v>
+      </c>
+      <c r="B122"/>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122">
+        <v>2024</v>
+      </c>
+      <c r="F122">
+        <v>166</v>
+      </c>
+      <c r="G122">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>405024</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>2024</v>
+      </c>
+      <c r="F123">
+        <v>44</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>403101</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>2023</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+      <c r="G124">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>405012</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>2023</v>
+      </c>
+      <c r="F125">
+        <v>107</v>
+      </c>
+      <c r="G125">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/reportes.xlsx
+++ b/reportes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Código Fonasa</t>
   </si>
@@ -38,373 +38,376 @@
     <t>Total Exámenes</t>
   </si>
   <si>
-    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+    <t>Tomografía Computarizada angio  de encéfalo</t>
   </si>
   <si>
     <t>Scanner</t>
   </si>
   <si>
-    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral),Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Urografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de hipotálamo</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Tórax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
   </si>
   <si>
     <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
   </si>
   <si>
+    <t>Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pierna</t>
+  </si>
+  <si>
+    <t>Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Inc</t>
+  </si>
+  <si>
+    <t>Ecografía tiroidea (Incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
+  </si>
+  <si>
+    <t>Ecografía encefálica (RN o lactante),Ecografía encefálica (RN o lactante)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
     <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
   </si>
   <si>
-    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
-  </si>
-  <si>
-    <t>Resonancia magnetica</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de torax,Tomografía Computarizada angio de torax</t>
-  </si>
-  <si>
-    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral,Resonancia Magnética de Muslo o Cadera Unilateral</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t>RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES,RESONANCIA EXTREMIDADES INFERIORES</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Abdomen y Pelvis</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Ecografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Tórax ,Resonancia Magnética Angiografía de Tórax </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Co</t>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Ecografía mamaria bilateral (incluye Doppler)</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de articulaciones temporomandibulares</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Angiografía de Cuello</t>
+  </si>
+  <si>
+    <t>Ecografía doppler de vasos del cuello</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de fosa posterior</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Muslo o Cadera Unilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Angio Cardíaco Mínimo 64 cortes</t>
   </si>
   <si>
     <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
   </si>
   <si>
-    <t>Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos),Ecografía abdominal (incluye hígado vía biliar vesícula páncreas riñones bazo retroperitoneo y grandes vasos)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Pielografía</t>
-  </si>
-  <si>
-    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>Tomografía computarizada angio de extremidades inferiores (bilateral)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Urografía,Tomografía Computarizada Urografía,Tomografía Computarizada Urografía</t>
-  </si>
-  <si>
-    <t>Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler),Ecografía testicular (unilateral o bilateral) (Incluye Doppler)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pierna</t>
-  </si>
-  <si>
-    <t>Colangioresonancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Est0403014,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulaci</t>
-  </si>
-  <si>
-    <t>Ecografía tiroidea (Incluye Doppler)</t>
-  </si>
-  <si>
-    <t>Ecografía encefálica (RN o lactante),Ecografía encefálica (RN o lactante)</t>
+    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
+  </si>
+  <si>
+    <t>Ecografía renal (bilateral) o de bazo</t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t>Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de abdomen y pelvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética  Angiografía de Extremidad Superior Unilateral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Codo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+  </si>
+  <si>
+    <t>Tomografía computarizada angio de extremidad superior (unilateral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
+  </si>
+  <si>
+    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
   </si>
   <si>
     <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
   </si>
   <si>
-    <t>Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral,Resonancia Magnética de Tórax ( corazón esternón clavículas articulación acromioclavicular escápula costillas o articulación esternoclavicular) Toda la pared torácica o cada segmento o articulación Bilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica,Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios ,Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo,Tomografía Computarizada de hipotálamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar ,Tomografía Computarizada de Columna Lumbar </t>
-  </si>
-  <si>
-    <t>Ecografía mamaria bilateral (incluye Doppler),Ecografía mamaria bilateral (incluye Doppler)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
-  </si>
-  <si>
-    <t>Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar),Resonancia Columna Total (cervical dorsal lumbar)</t>
-  </si>
-  <si>
-    <t>Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia,Colangioresonancia</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas,Resonancia Magnética  de órbitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen ,Resonancia Magnética Angiografía de Abdomen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical ,Tomografía Computarizada de columna cervical </t>
-  </si>
-  <si>
-    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de articulaciones temporomandibulares</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Angiografía de Cuello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
-  </si>
-  <si>
-    <t>Ecografía doppler de vasos del cuello</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía,Tomografía Computarizada Pielografía</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax,Tomografía Computarizada angio de tórax</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de fosa posterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial ,Tomografía Computarizada de órbitas maxilofacial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Muslo o Cadera Unilateral</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Angio Cardíaco Mínimo 64 cortes</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal),Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pierna,Resonancia Magnética de Pierna</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
-  </si>
-  <si>
-    <t>Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo,Ecografía renal (bilateral) o de bazo</t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo ,Resonancia Magnética de hipotálamo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal,Resonancia Magnética de columna dorsal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro ,Resonancia Magnética de Hombro </t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica),Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de abdomen y pelvis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Pelvis ,Resonancia Magnética Angiografía de Pelvis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética  Angiografía de Extremidad Superior Unilateral </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo ,Resonancia Magnética de Codo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar,Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal,Tomografía Computarizada de temporal</t>
-  </si>
-  <si>
-    <t>Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral),Tomografía computarizada angio de extremidad superior (unilateral)</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral,Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones),Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo ,Resonancia Magnética de Pie Antepie o Tobillo </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad,Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral,Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen,Tomografía Computarizada angio de abdomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo ,Resonancia Magnética Angiografía de Encéfalo </t>
-  </si>
-  <si>
-    <t>Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical,Resonancia Magnética  de columna cervical</t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas,Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen ,Resonancia Magnética de abdomen </t>
-  </si>
-  <si>
-    <t>Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral),Ecografía vascular (arterial y venosa) periférica (bilateral)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas ,Tomografía Computarizada de cuello partes blandas </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis,Tomografía Computarizada de Abdomen y Pelvis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resonancia Magnética de abdomen </t>
   </si>
   <si>
-    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca ,Resonancia Magnética de Mano o Muñeca </t>
-  </si>
-  <si>
-    <t>Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo,Tomografía Computarizada angio  de encéfalo</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis,Resonancia Magnética de abdomen y pelvis</t>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
+  </si>
+  <si>
+    <t>Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnetica de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla,Resonancia Magnética de rodilla</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
         <v>330</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -814,12 +817,12 @@
         <v>29</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>403022</v>
+        <v>403014</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
@@ -832,15 +835,15 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>403002</v>
+        <v>403022</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
@@ -853,154 +856,154 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>405006</v>
+        <v>403002</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>403102</v>
+        <v>405016</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>405016</v>
+        <v>403012</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F8">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>403001</v>
+        <v>405030</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>2023</v>
       </c>
       <c r="F9">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="G9">
-        <v>430</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>405030</v>
+        <v>403019</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2023</v>
       </c>
       <c r="F10">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>403013</v>
+        <v>405001</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>2022</v>
       </c>
       <c r="F11">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>405001</v>
+        <v>405007</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>2022</v>
       </c>
       <c r="F12">
-        <v>246</v>
+        <v>533</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1008,91 +1011,91 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>405007</v>
+        <v>403017</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F13">
-        <v>533</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>405027</v>
+        <v>403001</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="G14">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>403014</v>
+        <v>405015</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F15">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>405015</v>
+        <v>405003</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>2023</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>403020</v>
+        <v>403001</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
@@ -1102,34 +1105,34 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F17">
-        <v>1226</v>
+        <v>330</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>404118</v>
+        <v>403020</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F18">
-        <v>1983</v>
+        <v>1226</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1138,7 +1141,7 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1150,7 +1153,7 @@
         <v>2215</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1159,10 +1162,10 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -1171,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1180,7 +1183,7 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1197,11 +1200,11 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>403014</v>
+        <v>403021</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1210,22 +1213,22 @@
         <v>2023</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>314</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>404003</v>
+        <v>404016</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
         <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -1234,33 +1237,33 @@
         <v>7</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>404003</v>
+        <v>403021</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>578</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>403006</v>
+        <v>403001</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="s">
@@ -1270,18 +1273,18 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F25">
-        <v>68</v>
+        <v>1086</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>403021</v>
+        <v>403107</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -1291,10 +1294,10 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F26">
-        <v>578</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1302,49 +1305,49 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>405098</v>
+        <v>403022</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>2024</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>403021</v>
+        <v>404014</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F28">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>403001</v>
+        <v>403102</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
@@ -1354,52 +1357,52 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F29">
-        <v>1086</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>403001</v>
+        <v>405021</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F30">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>403107</v>
+        <v>405029</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>2024</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1407,209 +1410,209 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>403022</v>
+        <v>405098</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F32">
-        <v>294</v>
+        <v>853</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>404014</v>
+        <v>403013</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>405001</v>
+        <v>404015</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="s">
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="G34">
-        <v>398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>403016</v>
+        <v>405011</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="s">
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>243</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>405029</v>
+        <v>403006</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="s">
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>2024</v>
       </c>
       <c r="F36">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>405098</v>
+        <v>404003</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="s">
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F37">
-        <v>853</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <r